--- a/record_zdaiot.xlsx
+++ b/record_zdaiot.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>model</t>
   </si>
@@ -134,7 +134,7 @@
     <t>erase与gray影响不大</t>
   </si>
   <si>
-    <t>ReduceLR/train acc</t>
+    <t>ReduceLR/10/train acc</t>
   </si>
   <si>
     <t>0.9644/59</t>
@@ -152,10 +152,31 @@
     <t>log-2019-11-27T19-50-37</t>
   </si>
   <si>
-    <t>0.0.959</t>
+    <t>dropout不work并会延长到大最优点的时间（模型没有过拟合，验证集loss曲线无上升）</t>
   </si>
   <si>
-    <t>dropout不work并会延长到大最优点的时间（模型没有过拟合，验证集loss曲线无上升）</t>
+    <t>ReduceLR/5/valid loss</t>
+  </si>
+  <si>
+    <t>0.9658/41</t>
+  </si>
+  <si>
+    <t>log-2019-11-28T09-38-20</t>
+  </si>
+  <si>
+    <t>前面采用StepLR/20的参数基本是特别好的参数，接下来应该考虑数据增强或者损失函数了</t>
+  </si>
+  <si>
+    <t>1.0*SmoothCrossEntropy+1.0*FocalLoss</t>
+  </si>
+  <si>
+    <t>0.9458/42</t>
+  </si>
+  <si>
+    <t>log-2019-11-28T16-49-55</t>
+  </si>
+  <si>
+    <t>FocalLoss值太小，所以并没有起到好的作用</t>
   </si>
 </sst>
 </file>
@@ -164,8 +185,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -206,13 +227,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -234,21 +248,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,8 +271,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,9 +315,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,55 +367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,12 +444,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,7 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +474,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,132 +616,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -602,15 +623,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -638,28 +650,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,23 +700,25 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -707,138 +728,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -864,10 +885,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1209,14 +1230,16 @@
   <sheetPr/>
   <dimension ref="A1:V16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="13" max="13" width="22.125" customWidth="1"/>
+    <col min="18" max="18" width="34.5" customWidth="1"/>
+    <col min="19" max="19" width="14.125" customWidth="1"/>
     <col min="20" max="20" width="27" customWidth="1"/>
     <col min="22" max="22" width="22" customWidth="1"/>
   </cols>
@@ -1230,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1396,10 +1419,10 @@
       <c r="D4" s="6">
         <v>256</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0.2</v>
       </c>
       <c r="G4" s="6">
@@ -1464,10 +1487,10 @@
       <c r="D5" s="6">
         <v>256</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0.2</v>
       </c>
       <c r="G5" s="6">
@@ -1488,7 +1511,7 @@
       <c r="L5" s="10">
         <v>0.01</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="N5" s="10">
@@ -1523,7 +1546,7 @@
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1532,10 +1555,10 @@
       <c r="D6" s="6">
         <v>256</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.2</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0.2</v>
       </c>
       <c r="G6" s="6">
@@ -1580,15 +1603,149 @@
       <c r="T6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="6">
+        <v>0.959</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="3" t="s">
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:22">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6">
+        <v>256</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="6">
+        <v>24</v>
+      </c>
+      <c r="K7" s="6">
+        <v>60</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="N7" s="10">
+        <v>0.0005</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0.958</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" s="3" customFormat="1"/>
-    <row r="8" s="3" customFormat="1"/>
+    <row r="8" s="3" customFormat="1" spans="1:22">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6">
+        <v>256</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="6">
+        <v>24</v>
+      </c>
+      <c r="K8" s="6">
+        <v>60</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.0005</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0.934</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="9" s="3" customFormat="1"/>
     <row r="10" s="3" customFormat="1"/>
     <row r="11" s="3" customFormat="1"/>
